--- a/medicine/Premiers secours et secourisme/Sauvetage-déblaiement/Sauvetage-déblaiement.xlsx
+++ b/medicine/Premiers secours et secourisme/Sauvetage-déblaiement/Sauvetage-déblaiement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sauvetage-d%C3%A9blaiement</t>
+          <t>Sauvetage-déblaiement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sauvetage-déblaiement (SD) consiste à rechercher des personnes ensevelies à la suite d'un séisme, une coulée de boue ou une explosion de grande ampleur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sauvetage-d%C3%A9blaiement</t>
+          <t>Sauvetage-déblaiement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Techniques et matériel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intervention se produit toujours dans un environnement dégradé : les infrastructures sont défaillantes, le milieu est dangereux. Les techniques favorisent en général l'utilisation de matériel simple et robuste, facile à réparer et à improviser (« système D »), en particulier le froissartage.
 La première préoccupation est la sécurisation des personnels : équipements de protection individuelle (casques, gants, lunettes, tenue solide, chaussures de sécurité, vêtements à haute visibilité), balisage des zones à risque, éclairage, gestion des personnels pour éviter la fatigue, le surmenage et le coup de chaleur d'effort (rotation des équipes, hydratation).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sauvetage-d%C3%A9blaiement</t>
+          <t>Sauvetage-déblaiement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-En France, le sauvetage-déblaiement est la mission phare des Formations militaires de la sécurité civile (FORMISC, les UIISC). Les techniques sont aussi enseignées chez les sapeurs-pompiers ainsi que dans les associations de secourisme. De nombreux services d'incendie et de secours français disposent d'unités de sauvetage-déblaiement qui sont engagées régulièrement sur tout le territoire. Le sauvetage déblaiement est une spécialité des sapeurs-pompiers soumise à formation et à liste d'aptitude nationale.
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le sauvetage-déblaiement est la mission phare des Formations militaires de la sécurité civile (FORMISC, les UIISC). Les techniques sont aussi enseignées chez les sapeurs-pompiers ainsi que dans les associations de secourisme. De nombreux services d'incendie et de secours français disposent d'unités de sauvetage-déblaiement qui sont engagées régulièrement sur tout le territoire. Le sauvetage déblaiement est une spécialité des sapeurs-pompiers soumise à formation et à liste d'aptitude nationale.
 Les missions du sauvetage-déblaiement sont :
 séismes, coulées  de boue, etc.
 désordres bâtimentaire , avis techniques, etc.
@@ -570,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sauvetage-d%C3%A9blaiement</t>
+          <t>Sauvetage-déblaiement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +607,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme dans le prompt secours routier où le secouriste présent auprès de la victime est surnommé « écureuil », le sauveteur SD présent auprès de la victime durant les manœuvres de dégagement est appelé « furet ».
 </t>
